--- a/Texts/Город Сокровищ/Все персонажи/Арбок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Арбок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïëàèúâàåóòòòòòÿ, œóï üóï\níåòòòòòóï äïâïìûîï óàëé òòòòòëâåñîïå,\nâåñîï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It isssss rare to come by\nnewssssss on [CS:P]Zero Isle[CR]. Right, bossssssss?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/G01P03A/um1105.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ссссс [CS:P]Нуль-Оссссстровов[CR] нет\nпочти никаких вессссстей. Верно, боссссс?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òòòòò [CS:P]Îôìû-Ïòòòòòóñïâïâ[CR] îåó\nðïœóé îéëàëéö âåòòòòòóåê. Âåñîï, áïòòòòò?</t>
   </si>
 </sst>
 </file>
@@ -85,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,11 +138,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -151,6 +174,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -433,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,6 +527,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Арбок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Арбок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Òòòòò [CS:P]Îôìû-Ïòòòòòóñïâïâ[CR] îåó\nðïœóé îéëàëéö âåòòòòòóåê. Âåñîï, áïòòòòò?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve finally found it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Zero Isle[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us0106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наконец-то мы его нашли!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы нашли [CS:P]Нуль-Остров[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàëïîåø-óï íú åãï îàšìé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îàšìé [CS:P]Îôìû-Ïòóñïâ[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us3102.ssb</t>
   </si>
 </sst>
 </file>
@@ -462,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,6 +568,40 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Арбок.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Арбок.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -91,6 +91,30 @@
   </si>
   <si>
     <t>SCRIPT/P01P01A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve been exploring\n[CS:P]Zero Isle[CR], but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That ssssspot isssssn\'t for the\nfaint of heart.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0413.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы изучали [CS:P]Нуль-Осссстров[CR], но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это мессссто не для сссслабых...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú éèôœàìé [CS:P]Îôìû-Ïòòòòóñïâ[CR], îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï íåòòòòóï îå äìÿ òòòòìàáúö...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2004.ssb</t>
   </si>
 </sst>
 </file>
@@ -486,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,20 +610,54 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
